--- a/dati/data_iss_età_2021-11-10.xlsx
+++ b/dati/data_iss_età_2021-11-10.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrico\Desktop\cose\py_work_dir\apalladi\dati\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFDE787-83BA-40FD-98BB-190425FBA6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dati epidemiologici" sheetId="1" r:id="rId1"/>
     <sheet name="popolazioni" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>casi non vaccinati</t>
   </si>
@@ -23,48 +29,72 @@
     <t>casi vaccinati 1 dose</t>
   </si>
   <si>
-    <t>casi vaccinati</t>
+    <t>casi vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>casi vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>casi booster</t>
   </si>
   <si>
+    <t>casi vaccinati completo</t>
+  </si>
+  <si>
     <t>ospedalizzati non vaccinati</t>
   </si>
   <si>
     <t>ospedalizzati vaccinati 1 dose</t>
   </si>
   <si>
-    <t>ospedalizzati vaccinati</t>
+    <t>ospedalizzati vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>ospedalizzati vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>ospedalizzati booster</t>
   </si>
   <si>
+    <t>ospedalizzati vaccinati completo</t>
+  </si>
+  <si>
     <t>terapia intensiva non vaccinati</t>
   </si>
   <si>
     <t>terapia intensiva vaccinati 1 dose</t>
   </si>
   <si>
-    <t>terapia intensiva vaccinati</t>
+    <t>terapia intensiva vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>terapia intensiva vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>terapia intensiva booster</t>
   </si>
   <si>
+    <t>terapia intensiva vaccinati completo</t>
+  </si>
+  <si>
     <t>decessi non vaccinati</t>
   </si>
   <si>
     <t>decessi vaccinati 1 dose</t>
   </si>
   <si>
-    <t>decessi vaccinati</t>
+    <t>decessi vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>decessi vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>decessi booster</t>
   </si>
   <si>
+    <t>decessi vaccinati completo</t>
+  </si>
+  <si>
     <t>età</t>
   </si>
   <si>
@@ -80,29 +110,29 @@
     <t>80+</t>
   </si>
   <si>
-    <t>casi vaccinati completo</t>
-  </si>
-  <si>
-    <t>casi vaccinati booster</t>
-  </si>
-  <si>
     <t>ospedalizzati/ti non vaccinati</t>
   </si>
   <si>
     <t>ospedalizzati/ti vaccinati 1 dose</t>
   </si>
   <si>
-    <t>ospedalizzati/ti vaccinati</t>
+    <t>ospedalizzati/ti vaccinati &gt; 4-6 mesi</t>
+  </si>
+  <si>
+    <t>ospedalizzati/ti vaccinati &lt; 4-6 mesi</t>
   </si>
   <si>
     <t>ospedalizzati/ti booster</t>
+  </si>
+  <si>
+    <t>ospedalizzati/ti vaccinati completo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +147,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,25 +186,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{DEC49734-DE88-4C67-A59E-8815EAD541D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,16 +536,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -511,10 +597,34 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>18568</v>
@@ -523,51 +633,75 @@
         <v>1513</v>
       </c>
       <c r="D2">
+        <v>1535</v>
+      </c>
+      <c r="E2">
+        <v>11624</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>13180</v>
       </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>475</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>97</v>
       </c>
-      <c r="I2">
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>2</v>
       </c>
-      <c r="P2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>2</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>15027</v>
@@ -576,51 +710,75 @@
         <v>1284</v>
       </c>
       <c r="D3">
+        <v>2604</v>
+      </c>
+      <c r="E3">
+        <v>17003</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
         <v>19655</v>
       </c>
-      <c r="E3">
-        <v>48</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>991</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>31</v>
       </c>
-      <c r="H3">
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>202</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>253</v>
       </c>
-      <c r="I3">
+      <c r="N3">
+        <v>106</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>106</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>17</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="T3">
         <v>47</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>9</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>5364</v>
@@ -629,51 +787,75 @@
         <v>551</v>
       </c>
       <c r="D4">
+        <v>1202</v>
+      </c>
+      <c r="E4">
+        <v>12680</v>
+      </c>
+      <c r="F4">
+        <v>77</v>
+      </c>
+      <c r="G4">
         <v>13959</v>
       </c>
-      <c r="E4">
-        <v>77</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>985</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>56</v>
       </c>
-      <c r="H4">
+      <c r="J4">
+        <v>63</v>
+      </c>
+      <c r="K4">
+        <v>830</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
         <v>902</v>
       </c>
-      <c r="I4">
+      <c r="N4">
+        <v>208</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>92</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
+        <v>149</v>
+      </c>
+      <c r="U4">
         <v>9</v>
       </c>
-      <c r="J4">
-        <v>208</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>99</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>149</v>
-      </c>
-      <c r="O4">
-        <v>9</v>
-      </c>
-      <c r="P4">
+      <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
+        <v>75</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>83</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1223</v>
@@ -682,46 +864,70 @@
         <v>118</v>
       </c>
       <c r="D5">
+        <v>2747</v>
+      </c>
+      <c r="E5">
+        <v>2621</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
         <v>5508</v>
       </c>
-      <c r="E5">
-        <v>140</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>439</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="J5">
+        <v>487</v>
+      </c>
+      <c r="K5">
+        <v>664</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
         <v>1157</v>
       </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
+      <c r="N5">
         <v>26</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>21</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>62</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="T5">
         <v>162</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>13</v>
       </c>
-      <c r="P5">
+      <c r="V5">
+        <v>76</v>
+      </c>
+      <c r="W5">
+        <v>214</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>290</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -730,16 +936,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -748,39 +956,57 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <v>3649047</v>
@@ -788,40 +1014,58 @@
       <c r="C2">
         <v>1281842</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <v>620294</v>
+      </c>
+      <c r="E2">
+        <v>11871919</v>
+      </c>
+      <c r="F2">
+        <v>12453</v>
+      </c>
+      <c r="G2">
         <v>12504666</v>
       </c>
-      <c r="E2">
-        <v>12453</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>4131599</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1588270</v>
       </c>
-      <c r="H2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>11715686</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="N2">
         <v>4435610</v>
       </c>
-      <c r="K2">
+      <c r="O2">
         <v>1920254</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>11079691</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>3102638</v>
@@ -829,40 +1073,58 @@
       <c r="C3">
         <v>873639</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
+        <v>991158</v>
+      </c>
+      <c r="E3">
+        <v>13421801</v>
+      </c>
+      <c r="F3">
+        <v>48269</v>
+      </c>
+      <c r="G3">
         <v>14461228</v>
       </c>
-      <c r="E3">
-        <v>48269</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>3459567</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>875355</v>
       </c>
-      <c r="H3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>14103183</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="N3">
         <v>3686874</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>923975</v>
       </c>
-      <c r="L3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>13827667</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>1318627</v>
@@ -870,40 +1132,58 @@
       <c r="C4">
         <v>288838</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <v>496394</v>
+      </c>
+      <c r="E4">
+        <v>11377414</v>
+      </c>
+      <c r="F4">
+        <v>91506</v>
+      </c>
+      <c r="G4">
         <v>11965314</v>
       </c>
-      <c r="E4">
-        <v>91506</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1399821</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>304769</v>
       </c>
-      <c r="H4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>11868189</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="N4">
         <v>1458643</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>320253</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>11793883</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>232553</v>
@@ -911,35 +1191,53 @@
       <c r="C5">
         <v>94295</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <v>1776980</v>
+      </c>
+      <c r="E5">
+        <v>2317784</v>
+      </c>
+      <c r="F5">
+        <v>142491</v>
+      </c>
+      <c r="G5">
         <v>4237255</v>
       </c>
-      <c r="E5">
-        <v>142491</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>240500</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>94801</v>
       </c>
-      <c r="H5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>4228199</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="N5">
         <v>248105</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>94972</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>4219974</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
